--- a/assets/dist/js/Animated Illustration Explorer_DATA.xlsx
+++ b/assets/dist/js/Animated Illustration Explorer_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Programming\Aniilustrate_project_20200902\home\assets\dist\js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253D41A-FCD1-4B38-AFFC-D7333E284838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894EC753-D85B-4829-BA34-275C5583B070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" activeTab="2" xr2:uid="{4322A06D-D89B-1643-8D8F-B4645DF55845}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="384">
   <si>
     <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1401,6 +1401,18 @@
   </si>
   <si>
     <t>In order to emphasize specific information, adding dynamic effects to exaggerate characteristics, function, degree of things.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 Show the Instinctive Behaviours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 Exaggerate Reality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In order to achieve a certain expression effect, exaggerating objects‘ images, characteristics, function, and degree.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5175,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4686124-13B4-4F4E-999B-C3E4B8682983}">
   <dimension ref="A1:AL85"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="H27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8380,8 +8392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6765F0B-A5C5-4574-AF21-D75786DBDE9C}">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8391,7 +8403,7 @@
     <col min="3" max="3" width="11.26953125" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" style="124" customWidth="1"/>
     <col min="5" max="5" width="32.08984375" style="128" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="41.08984375" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" customWidth="1"/>
     <col min="8" max="8" width="32.1796875" customWidth="1"/>
     <col min="10" max="10" width="41.36328125" style="19" customWidth="1"/>
@@ -8503,7 +8515,7 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="I3" t="s">
         <v>348</v>
@@ -8535,10 +8547,10 @@
         <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J4" s="137" t="s">
         <v>353</v>
@@ -8855,7 +8867,7 @@
         <v>321</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="I14" t="s">
         <v>349</v>
@@ -8951,10 +8963,10 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="J17" s="137" t="s">
         <v>366</v>
@@ -9726,7 +9738,7 @@
         <v>319</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D1" s="82" t="s">
         <v>320</v>
@@ -10100,5 +10112,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>